--- a/hazid.xlsx
+++ b/hazid.xlsx
@@ -5,13 +5,15 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="HAZID" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Risk Summary" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Recommendations" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Hazard</t>
   </si>
@@ -43,50 +45,120 @@
     <t>Recommendations</t>
   </si>
   <si>
-    <t>Loss of containment</t>
-  </si>
-  <si>
-    <t>Wear &amp; tear</t>
-  </si>
-  <si>
-    <t>Internal flow</t>
-  </si>
-  <si>
-    <t>Flammable environment in the FGSS room</t>
-  </si>
-  <si>
-    <t>Double wall around pipe</t>
-  </si>
-  <si>
-    <t>Asset</t>
+    <t>New hazard</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>personnel</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do something at first — 
+You need more action. — Who will do the?</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>asset</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> — </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Hydraant</t>
-  </si>
-  <si>
-    <t>Explosion</t>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>Another hazard</t>
+  </si>
+  <si>
+    <t>environmental</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action for haz2 — </t>
+  </si>
+  <si>
+    <t>Consequence</t>
+  </si>
+  <si>
+    <t>Severity Category</t>
+  </si>
+  <si>
+    <t>Severity Index</t>
+  </si>
+  <si>
+    <t>Likelihood Index</t>
+  </si>
+  <si>
+    <t>Risk Ranking</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Responsible Party</t>
+  </si>
+  <si>
+    <t>Do something at first</t>
+  </si>
+  <si>
+    <t>You need more action.</t>
+  </si>
+  <si>
+    <t>Who will do the?</t>
+  </si>
+  <si>
+    <t>Action for haz2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -96,9 +168,13 @@
     </font>
     <font>
       <b/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,11 +183,21 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8FA"/>
+        <fgColor rgb="FF024F75"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC107"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF28A745"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,16 +207,46 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD0D7DE"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFD0D7DE"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFD0D7DE"/>
+        <color rgb="FF024F75"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFD0D7DE"/>
+        <color rgb="FF024F75"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF024F75"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF024F75"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF024F75"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF024F75"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -138,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -146,9 +262,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -558,105 +686,332 @@
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
+  <mergeCells count="22">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
